--- a/ecosysem/reactions/Excel/metabolisms.xlsx
+++ b/ecosysem/reactions/Excel/metabolisms.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41B197A-53B3-49BF-8BB3-2C9D574A57CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E66BB-1F36-4623-B4CE-8076978F94D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -432,7 +443,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/reactions/Excel/metabolisms.xlsx
+++ b/ecosysem/reactions/Excel/metabolisms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E66BB-1F36-4623-B4CE-8076978F94D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD114AF-9220-4F74-9AC6-8F173B3E55B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3684" yWindow="-16788" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,33 +632,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecosysem/reactions/Excel/metabolisms.xlsx
+++ b/ecosysem/reactions/Excel/metabolisms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD114AF-9220-4F74-9AC6-8F173B3E55B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED16BA-8E63-4DF5-BB29-5FCEA365FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3684" yWindow="-16788" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/reactions/Excel/metabolisms.xlsx
+++ b/ecosysem/reactions/Excel/metabolisms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED16BA-8E63-4DF5-BB29-5FCEA365FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A091556-EF43-41AC-906A-53AB8980891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>CO/O2/CO2 (COOB)</t>
-  </si>
-  <si>
-    <t>H2/O2/H2O (HOB)</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>S0</t>
   </si>
   <si>
-    <t>NH3/O2/NO2-/H2O/H+ (AOM)</t>
-  </si>
-  <si>
     <t>NH3</t>
   </si>
   <si>
@@ -86,19 +77,28 @@
     <t>NO3-</t>
   </si>
   <si>
-    <t>CH4/O2/CO2/H2O (Methanotrophs)</t>
-  </si>
-  <si>
     <t>CH4</t>
   </si>
   <si>
-    <t>H2S/O2/SO4-2/H+ (SOM)</t>
-  </si>
-  <si>
-    <t>H2S/O2/S0/H2O (HypSOM)</t>
-  </si>
-  <si>
-    <t>NH3/O2/NO3-/H2O/H+ (CMX)</t>
+    <t>Carbon monoxide oxidation (COOB)</t>
+  </si>
+  <si>
+    <t>Hydrogen oxidation (HOB)</t>
+  </si>
+  <si>
+    <t>Sulfur oxidation (SOM)</t>
+  </si>
+  <si>
+    <t>Hypoxic sulfur oxidation (HypSOM)</t>
+  </si>
+  <si>
+    <t>Ammonia oxidation (AOM)</t>
+  </si>
+  <si>
+    <t>Complete ammonia oxidation (CMX)</t>
+  </si>
+  <si>
+    <t>Methanotrophs (Mth)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,30 +457,30 @@
     <col min="9" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>-2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
         <v>-1</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4">
         <v>-1</v>

--- a/ecosysem/reactions/Excel/metabolisms.xlsx
+++ b/ecosysem/reactions/Excel/metabolisms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A091556-EF43-41AC-906A-53AB8980891F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F30EFC-B9DB-4B89-BD78-2D9464B50BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Compounds</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Sulfur oxidation (SOM)</t>
   </si>
   <si>
-    <t>Hypoxic sulfur oxidation (HypSOM)</t>
-  </si>
-  <si>
     <t>Ammonia oxidation (AOM)</t>
   </si>
   <si>
@@ -99,6 +96,18 @@
   </si>
   <si>
     <t>Methanotrophs (Mth)</t>
+  </si>
+  <si>
+    <t>HNO2</t>
+  </si>
+  <si>
+    <t>HNO3</t>
+  </si>
+  <si>
+    <t>Gas ammonia oxidation (gAOM)</t>
+  </si>
+  <si>
+    <t>Gas complete ammonia oxidation (gCMX)</t>
   </si>
 </sst>
 </file>
@@ -437,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,12 +461,11 @@
     <col min="2" max="2" width="12.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="4" customWidth="1"/>
-    <col min="6" max="8" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="9" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,24 +488,27 @@
         <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
       </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -511,13 +522,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -531,19 +545,22 @@
         <v>-2</v>
       </c>
       <c r="E4" s="4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F4" s="4">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="G4" s="4">
         <v>-2</v>
       </c>
       <c r="H4" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="I4" s="4">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -551,18 +568,18 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -570,18 +587,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
       </c>
-      <c r="E8" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -589,47 +603,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="4">
+        <v>-1</v>
+      </c>
       <c r="F11" s="4">
         <v>-1</v>
       </c>
-      <c r="G11" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4">
-        <v>-1</v>
+      <c r="G14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
